--- a/finetuning/it_datasets/it_dataset/it_beni khiar_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_beni khiar_dataset.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated dining spot, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This highly-regarded restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a 4.3 rating, it's a must-visit spot. It's open during these hours: 10:00-01:00, but closed on  . To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated spot for Restaurant lovers, check out La Pampa located at FQ3P+FRP La Pampa, Av. de la Liberte, Beni Khiar. This top-rated destination offers a range of Restaurant categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-13:00, 17:00-02:00, but closed on []. To get there, use these GPS coordinates: 36.454387640549, 10.785850418423. For more details, visit their link at https://www.google.com/maps/place/La+Pampa/data=!4m7!3m6!1s0x1302993b8ce6b9f5:0xd31cc0791a1de880!8m2!3d36.4537221!4d10.7870887!16s%2Fg%2F11f72jpdj_!19sChIJ9bnmjDuZAhMRgOgdGnnAHNM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 003 922.</t>
+          <t>La Pampa is a restaurant located in Beni Khiar, offering a variety of dining options. It has received a 4.4 rating from customers and is open from 7am to 1pm and 5pm to 2am daily. The restaurant's featured image showcases a vibrant and inviting ambiance, and it is located at the coordinates (36.454387640549, 10.785850418423).</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. This top-rated destination is perfect for Boulangerie lovers and offers a range of Boulangerie to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, call them at 92 422 215.</t>
+          <t>Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in beni khiar, Restaurant La casa doro's your spot to be. This top-rated Restaurant is great for Restaurant enthusiasts and offers a range of Restaurant options. With a rating of 4.1, it's highly recommended. They're open from 10:00-21:30 all week except for dimanche. To get to Restaurant La casa doro, use these GPS coordinates: 36.5502451, 10.7267426.</t>
+          <t>Restaurant La Casa Doro, located in Beni Khiar, Tunisia, offers a delectable dining experience with a menu that will tantalize your taste buds. Conveniently situated at (36.5502451, 10.7267426), the restaurant boasts a warm and inviting ambiance. Its doors are open from Monday to Saturday from 10:00 to 21:30, so you can indulge in culinary delights any day of the week (except Sundays).</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great coffee, check out Cafe Ben brahim Chez Oussama located at FQGP+29X Cafe Ben brahim Chez Oussama, shr` ljmhwry@, Beni Khiar. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 03:30-23:00, but closed on Mondays. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at http://facebook.com/Fcb.OuSama or call them at 29 056 003.</t>
+          <t>Cafe Ben brahim is a cafe located in beni khiar at the following coordinates : (36.4724714, 10.7885366). It is openfrom 03:30 to 23:00 all days of the week. It has a rating of 4.2 and 14 reviews. It offers the following category : Cafe.</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out PAPA WES'S PIZZA located at 17 Av. Ahmed Tlili, Beni Khiar. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.467164795132, 10.785382730321. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 95 120 004.</t>
+          <t>**PAPA WES'S PIZZA** is a highly rated (4/5) restaurant located in Beni Khiar, Tunisia (36.467164795132, 10.785382730321). This restaurant, open from 9 am to midnight, offers a wide range of food options. Its website is https://best--restaurants.blogspot.com/ and its phone number is 95 120 004.</t>
         </is>
       </c>
     </row>
@@ -1272,9 +1272,8 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for a great cafe, check out BiBi Terrasse located at 2011 shr` 14 jnfy. 
-This top-rated destination is perfect for cafe lovers and offers a cozy ambiance with delicious coffee and pastries. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1368,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. This top-rated destination is perfect for Pizzeria lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/LA+BAMBA/data=!4m7!3m6!1s0x130299b21ed54aaf:0x2f1bb0297c36eba8!8m2!3d36.4644411!4d10.7833834!16s%2Fg%2F11flgfs71b!19sChIJr0rVHrKZAhMRqOs2fCmwGy8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1467,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something fun to do, check out Fennia Cafe located at FQ8P+Q7Q Fennia Cafe, shr` 'Hmd ltlyly, Beni Khiar. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Fennia Cafe, approved by 9 reviewers, welcomes you with a rating of 4.4. Located in Beni Khiar at the coordinates (36.4724714, 10.7885366), this cafe is a great place to relax and enjoy the company of others. They are open from 05:00 AM to 10:00 PM during weekdays.</t>
         </is>
       </c>
     </row>
@@ -1571,9 +1570,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great cafe, check out Cafe des Arcades located at 15 Av. 14 Janvier 2011, Beni Khiar. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 04:30-00:00, but closed on []. To get there, use these GPS coordinates: 36.460680010012, 10.785332774178. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+des+Arcades/data=!4m7!3m6!1s0x13029805637910e7:0xcad1634e2bb91187!8m2!3d36.4555824!4d10.7890205!16s%2Fg%2F1tf12sw3!19sChIJ5xB5YwWYAhMRhxG5K05j0co?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 443 842.</t>
+          <t>Cafe des Arcades, located at 15 Av. 14 Janvier 2011, Beni Khiar, is a cafe offering a relaxing atmosphere with a 4.4 rating based on 8 reviews. It operates daily from 4:30 AM to midnight and can be reached via phone at 90 443 842.</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1673,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great place to eat, check out Food Station Beni Khiar located at Rue de l'environnement 8060, Beni Khiar. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, visit their website or call them at 52 829 112.</t>
+          <t>Food Station Beni Khiar is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 10am to midnight, seven days a week. It is located at the coordinates (36.469386365975, 10.807021723363).</t>
         </is>
       </c>
     </row>
@@ -1771,9 +1768,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Fast Food Haythem located at 20-26, shr` lHbyb bwrqyb@. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at or call them at .</t>
+          <t>Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1875,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Beni khiar and looking for a great local restaurant, The Wave cafe-Resto is a top-rated destination located at beach, Beni khiar, Benikhiar 8060. With a rating of 4.3, it's a must-visit spot. It's open from 08:00 to 22:30 during the week and is closed on . For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100094180868711%26mibextid%3DLQQJ4d or call them at 92 721 295.</t>
+          <t>The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.</t>
         </is>
       </c>
     </row>
@@ -1971,9 +1966,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Coffee shop zahraoui located at FQ8J+QFC Coffee shop zahraoui, nhj lTyb lmhyry, Beni Khiar. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Coffee shop zahraoui is a cafe located in beni khiar, with a rating of 5.0 based on 2 reviews. Its exact location is at (36.4724714, 10.7885366).</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2061,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Pizzeria, CAPPELLO beni khiar is the perfect spot. Located at FQ7H+68V CAPPELLO beni khiar, Rue Fadhel Ben Achour, Beni Khiar, this popular destination has a 5.0 rating and offers a delicious range of Pizzeria options. For more details, visit their website at https://www.google.com/maps/place/CAPPELLO+beni+khiar/data=!4m7!3m6!1s0x1302990040dd0fc5:0x460909332633aefc!8m2!3d36.4631066!4d10.7782584!16s%2Fg%2F11vjtbq543!19sChIJxQ_dQACZAhMR_K4zJjMJCUY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2156,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and searching for a great Cafe, consider mqh~ lblwr located at FQ9H+CWG mqh~ lblwr, shr` lHbyb bwrqyb@. With an impressive rating of 5.0, this top-rated destination is perfect for Cafe lovers. For more information, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A8%D9%84%D9%88%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x1302a2a1af487da5:0x922bc825a327a411!8m2!3d36.4685749!4d10.7798323!16s%2Fg%2F12qgqlw18!19sChIJpX1Ir6GiAhMREaQnoyXIK5I?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>This cafe, "mqh~lblwr", is located in Beni Khiar, Tunisia (36.4724714, 10.7885366). It has a 5-star rating based on 2 reviews, and its popularity can be attributed to its specialization as a cozy spot for coffee and drinks. While its precise offerings and ambiance are unknown, it's situated in a convenient location, making it a worthwhile destination for a quick break or a casual gathering.</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2259,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated cafe, then Cafe Ilyes is the perfect place for you. Located at 142 Av. de la Republique, this popular destination offers a great range of options for cafe lovers. With a rating of 4.0, it's a must-visit spot for anyone in the area. The cafe is open 24 hours a day, so you can visit anytime to enjoy their delicious food and drinks. To get there, use these GPS coordinates: (36.470294891144, 10.781653705417). For more details, visit their website at https://www.google.com/maps/place/Cafe+Ilyes/data=!4m7!3m6!1s0x1302a35a6117a645:0x239872eac0f5b869!8m2!3d36.4703206!4d10.7816965!16s%2Fg%2F11j1cjyzrj!19sChIJRaYXYVqjAhMRabj1wOpymCM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 701 347.</t>
+          <t>Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2362,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a highly-rated Cafe, check out Bouzid Cafe located at FQCM+J7G Bouzid Cafe, shr` ljmhwry@. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can enjoy their delicious coffee and pastries anytime. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/Bouzid+Caf%C3%A9/data=!4m7!3m6!1s0x1302a31127eb5261:0x121471104d735288!8m2!3d36.4715567!4d10.7832133!16s%2Fg%2F11j211nqwl!19sChIJYVLrJxGjAhMRiFJzTRBxFBI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 640 071.</t>
+          <t>Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2457,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great cafe experience, check out Waka Waka located at FQFF+3HV Waka Waka, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This top-rated destination is perfect for cafe lovers and offers a top-notch cafe experience. With a rating of 5.0, it's a must-visit spot. It's open during regular hours, but it's recommended to call ahead to confirm. To get there, use these GPS coordinates: 36.46798, 10.75167.</t>
+          <t>Discover "Waka Waka," a charming cafe in Waka Waka, Beni Khiar. Nestled at coordinates (36.46798, 10.75167), this cozy spot offers a relaxing atmosphere for coffee lovers. Its menu features a delightful selection of beverages and treats, making it an ideal destination for catching up with friends or enjoying a moment of tranquility.</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2552,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Waka Waka located at FQFF+3HV Waka Waka, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.google.com/maps/place/Waka+Waka/data=!4m7!3m6!1s0x1302a300bcf37fd7:0x158d1bd542bdbae5!8m2!3d36.472732!4d10.7739367!16s%2Fg%2F11s57t9rl1!19sChIJ13_zvACjAhMR5bq9QtUbjRU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Waka Waka, located in beni khiar, is a delightful cafe. Its convenient location at coordinates (36.46798, 10.75167) makes it easily accessible. The cafe's main focus is on providing a warm and inviting atmosphere for its customers, who can enjoy refreshments and relax in a cozy setting. With a rating of 5.0, Waka Waka has earned high praise from its patrons, highlighting the excellent experience it offers.</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2655,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great Cafe, check out Cafe Ilyes located at 142 Av. de la Republique, Beni Khiar. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, but closed on unknown. To get there, use these GPS coordinates: 36.470294891144, 10.781653705417. For more details, visit their website at https://www.google.com/maps/place/Cafe+Ilyes/data=!4m7!3m6!1s0x1302a35a6117a645:0x239872eac0f5b869!8m2!3d36.4703206!4d10.7816965!16s%2Fg%2F11j1cjyzrj!19sChIJRaYXYVqjAhMRabj1wOpymCM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 701 347.</t>
+          <t>Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.</t>
         </is>
       </c>
     </row>
@@ -2769,9 +2762,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out CASA CAFE ISMAIL (Cafe de la Plage) located at CASA CAFE ISMAIL (Cafe de la Plage), Av. de la Liberte, Beni Khiar 8060. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Restaurant to choose from. 
-With a rating of 3.8, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.454387640549, 10.785850418423. For more details, visit their website at https://www.facebook.com/cafeplagebenikhiar1 or call them at 28 078 898.</t>
+          <t>Located in Beni Khiar, CASA CAFE ISMAIL (Cafe de la Plage) is a cafe and restaurant offering a wide range of services. It is located at the coordinates (36.454387640549, 10.785850418423). The cafe is open from 6:00 AM to midnight, with a rating of 3.8 out of 5 stars based on 140 reviews. It has a featured image, website, and contact information available.</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2857,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Plage Beni khiar located at Plage Beni khiar, Beni Khiar. This top-rated destination is perfect for Plage lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.4544108, 10.785304. For more details, visit their website at &lt;a href=https://www.google.com/maps/place/Plage+Beni+khiar/data=!4m7!3m6!1s0x130298133d9368ef:0x72b70addba56e0eb!8m2!3d36.451221!4d10.7785374!16s%2Fg%2F12hnfyj4w!19sChIJ72iTPROYAhMR6-BWut0Kt3I?authuser=0&amp;hl=fr&amp;rclk=1&gt;here&lt;/a&gt;.</t>
+          <t>Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.</t>
         </is>
       </c>
     </row>
@@ -2973,9 +2964,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.</t>
         </is>
       </c>
     </row>
@@ -3074,8 +3063,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated bakery, head to Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. With a rating of 4.4 based on 17 reviews, it's a must-visit spot for bread lovers. 
-To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, visit the owner's website or call them at 92 422 215.</t>
+          <t>**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3158,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria categories to choose from. With a rating of 4.7, it's a must-visit spot.To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/LA+BAMBA/data=!4m7!3m6!1s0x130299b21ed54aaf:0x2f1bb0297c36eba8!8m2!3d36.4644411!4d10.7833834!16s%2Fg%2F11flgfs71b!19sChIJr0rVHrKZAhMRqOs2fCmwGy8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3253,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Port de Beni Khiar located at Port de Beni Khiar, Beni Khiar. This top-rated destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4542877, 10.7969189. For more details, visit their website at https://www.google.com/maps/place/Port+de+Beni+Khiar/data=!4m7!3m6!1s0x130298031e018cd9:0x8147a8266bb12566!8m2!3d36.4539605!4d10.797537!16s%2Fg%2F1v_sw73_!19sChIJ2YwBHgOYAhMRZiWxayaoR4E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -3356,9 +3344,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a delicious meal, check out Restaurant la voix de la mer located at FQ3X+V2C Restaurant la voix de la mer, Beni Khiar. 
-This top-rated destination is perfect for seafood lovers and offers a range of seafood dishes to choose from. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 45.19834, 0.35948.</t>
+          <t>Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3441,11 @@
           <t>beni khiar</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3552,8 +3542,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Maison de campagne, check out Jinene beni khiar located at FQ3F+9JQ Jinene beni khiar, Unnamed Road, Beni Khiar. 
-This beloved destination has a rating of 3.0 and is perfect for Maison de campagne lovers. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, visit their website at https://www.google.com/maps/place/Jinene+beni+khiar/data=!4m7!3m6!1s0x1302994e1ce2d723:0xd5295599bfe9a174!8m2!3d36.4534663!4d10.7741121!16s%2Fg%2F11fphj58q6!19sChIJI9fiHE6ZAhMRdKHpv5lVKdU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 192 286.</t>
+          <t>Located in Beni Khiar, Jinene beni khiar is a relaxing cottage that offers a peaceful and tranquil getaway. With a rating of 3.0 and only one review, this property might be a hidden gem worth exploring. Unfortunately, there is limited information available online about its amenities, facilities, or activities. To learn more about Jinene beni khiar, it is recommended to contact the owner directly.</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3641,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. This top-rated destination is perfect for Boulangerie lovers and offers a range of Boulangerie to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, call them at 92 422 215.</t>
+          <t>Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3740,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a comfortable stay, check out Jinen Beni Khiar at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060. This top-rated destination is a must-visit spot for those seeking a peaceful and relaxing retreat. With its rating of 4.7 out of 5, it offers a range of amenities to make your stay memorable. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more information, call them at 98 312 948.</t>
+          <t>Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3835,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a Plage, check out Plage Beni khiar located at Plage Beni khiar, Beni Khiar. This top-rated spot is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.4544108, 10.785304. For more details, visit their link at https://www.google.com/maps/place/Plage+Beni+khiar/data=!4m7!3m6!1s0x130298133d9368ef:0x72b70addba56e0eb!8m2!3d36.451221!4d10.7785374!16s%2Fg%2F12hnfyj4w!19sChIJ72iTPROYAhMR6-BWut0Kt3I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3930,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a port maritime, check out Port de Beni Khiar located at Port de Beni Khiar, Beni Khiar. With a rating of 4.6, this top-rated destination is a must-visit spot. To get there, use these GPS coordinates: (36.4542877, 10.7969189). For more details, visit their website at https://www.google.com/maps/place/Port+de+Beni+Khiar/data=!4m7!3m6!1s0x130298031e018cd9:0x8147a8266bb12566!8m2!3d36.4539605!4d10.797537!16s%2Fg%2F1v_sw73_!19sChIJ2YwBHgOYAhMRZiWxayaoR4E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.</t>
         </is>
       </c>
     </row>
@@ -4036,9 +4025,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Gb@ lbndq bny khyr located at FQ5M+R6W Gb@ lbndq bny khyr, Beni Khiar. 
-This top-rated destination is perfect for Terrain de camping lovers and offers a range of Terrain de camping to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: (36.4724714, 10.7885366).</t>
+          <t>Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4120,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Plage Beni khiar! This top-rated destination is perfect for Plage lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.4544108, 10.785304. For more details, visit their website at https://www.google.com/maps/place/Plage+Beni+khiar/data=!4m7!3m6!1s0x130298133d9368ef:0x72b70addba56e0eb!8m2!3d36.451221!4d10.7785374!16s%2Fg%2F12hnfyj4w!19sChIJ72iTPROYAhMR6-BWut0Kt3I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4219,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Boulangerie, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. With a rating of 4.4, it's a must-visit spot for Boulangerie lovers. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, call them at 92 422 215.</t>
+          <t>Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4314,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.5502451, 10.7267426. 
-For more details, visit their website at https://www.google.com/maps/place/LA+BAMBA/data=!4m7!3m6!1s0x130299b21ed54aaf:0x2f1bb0297c36eba8!8m2!3d36.4644411!4d10.7833834!16s%2Fg%2F11flgfs71b!19sChIJr0rVHrKZAhMRqOs2fCmwGy8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4409,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something to do, check out Port de Beni Khiar located at Beni Khiar. This top-rated destination is perfect for Port maritime lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4542877, 10.7969189. For more details, visit their website at https://www.google.com/maps/place/Port+de+Beni+Khiar/data=!4m7!3m6!1s0x130298031e018cd9:0x8147a8266bb12566!8m2!3d36.4539605!4d10.797537!16s%2Fg%2F1v_sw73_!19sChIJ2YwBHgOYAhMRZiWxayaoR4E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4512,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Pepiniere Maamoura located at Pepiniere Maamoura, Beni Khiar. This top-rated destination is perfect for Pepiniere lovers and offers a range of Pepiniere to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:30-17:30. To get there, use these GPS coordinates: 36.46499, 10.80612. For more details, call them at 98 227 039.</t>
+          <t>Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.</t>
         </is>
       </c>
     </row>
@@ -4627,9 +4611,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a place to stay, check out Jinen Beni Khiar located at Rue de, Beni Khiar 8060. 
-This top-rated destination is perfect for Chambre d'hotes lovers. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, call them at 98 312 948.</t>
+          <t>Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).</t>
         </is>
       </c>
     </row>
@@ -4732,9 +4714,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Maison de campagne imed Aounallah located at FQ5M+R6W Maison de campagne imed Aounallah, Beni Khiar. 
-This top-rated destination is perfect for Agriculteur lovers and offers a range of Agriculteur to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on none. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at https://www.google.com/maps/place/Maison+de+campagne+imed+Aounallah/data=!4m7!3m6!1s0x1302993caeca5d41:0x87dfcd0aa1a19678!8m2!3d36.4596214!4d10.7830826!16s%2Fg%2F11fkt82kdv!19sChIJQV3KrjyZAhMReJahoQrN34c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 573 363.</t>
+          <t>Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4813,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great place to get your bread, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. This top-rated bakery is perfect for bread lovers and offers a range of breads to choose from. With a rating of 4.4, it's a must-visit spot for bread enthusiasts. To get there, use these GPS coordinates: (36.46917, 10.78222). For more details, visit their website at https://www.google.com/maps/place/B%C3%A9ni+khiar/data=!4m7!3m6!1s0x1302994ac71f8365:0x6df2771204525209!8m2!3d36.4597097!4d10.7831324!16s%2Fg%2F11qbvnqgc6!19sChIJZYMfx0qZAhMRCVJSBBJ38m0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 422 215.</t>
+          <t>**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4908,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at  or call them at.</t>
+          <t>LA BAMBA is a Pizzeria located in Beni Khiar, Tunisia. LA BAMBA is rated 4.7 out of 5 stars based on 10 reviews and offers a variety of pizza options. LA BAMBA is located at the coordinates (36.5502451, 10.7267426) and is owned by LA BAMBA (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -5027,9 +5007,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Jinen Beni Khiar located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, visit their link at https://www.google.com/maps/place/Jinen+Beni+Khiar/data=!4m7!3m6!1s0x1302995bc1aa68b3:0xfb02888923d82a2c!8m2!3d36.453007!4d10.7768043!16s%2Fg%2F11j7g6ftv1!19sChIJs2iqwVuZAhMRLCrYI4mIAvs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 312 948.</t>
+          <t>Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.</t>
         </is>
       </c>
     </row>
@@ -5136,9 +5114,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for a great restaurant, check out Grill Station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. 
-This top-rated spot offers a range of dishes to choose from, perfect for restaurant lovers. 
-With a rating of 4.3, it's a must-visit place. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is open from 10:00am to 1:00am, and is closed on Sundays. Grill station is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and can be contacted at 23 312 754.</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5217,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great meal, check out La Pampa located at FQ3P+FRP La Pampa, Av. de la Liberte. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-13:00, 17:00-02:00. To get there, use these GPS coordinates: 36.454387640549, 10.785850418423. For more details, visit their website at https://www.google.com/maps/place/La+Pampa/data=!4m7!3m6!1s0x1302993b8ce6b9f5:0xd31cc0791a1de880!8m2!3d36.4537221!4d10.7870887!16s%2Fg%2F11f72jpdj_!19sChIJ9bnmjDuZAhMRgOgdGnnAHNM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 003 922.</t>
+          <t>La Pampa is a restaurant located in Beni Khiar, with coordinates (36.454387640549, 10.785850418423). It has a rating of 4.4 based on 24 reviews and is open from 7am to 1pm and 5pm to 2am.</t>
         </is>
       </c>
     </row>
@@ -5344,9 +5320,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Restaurant La casa doro located at FQGQ+48P Restaurant La casa doro, Route korba, Beni Khiar 8060. 
-This top-rated Restaurant is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on dimanche. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+casa+doro/data=!4m7!3m6!1s0x1302a2baac91648f:0x6e935ccfcbbd9878!8m2!3d36.4753281!4d10.7883138!16s%2Fg%2F11c30x754b!19sChIJj2SRrLqiAhMReJi9y89ck24?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 070 718.</t>
+          <t>Restaurant La Casa Doro welcomes you in beni khiar. It has a 4.1 rating based on 16 reviews. It is open from Monday to Saturday from 10:00 to 21:30 and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5427,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out PAPA WES'S PIZZA located at 17 Av. Ahmed Tlili, Beni Khiar. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.467164795132, 10.785382730321. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 95 120 004.</t>
+          <t>PAPA WES'S PIZZA is a restaurant located in beni khiar, offering a variety of dishes and cuisines. It is situated at the coordinates (36.467164795132, 10.785382730321) and is open from 9:00 AM to midnight during weekdays. The restaurant has received 13 reviews and has a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5522,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you find yourself in beni khiar and are looking for an excellent Pizzeria, be sure to visit LA BAMBA. Located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060, this top-rated destination has a rating of 4.7, making it a must-visit spot. It offers a range of Pizzeria to choose from and is open during hours that are not specified. To get there, use these GPS coordinates: (36.5502451, 10.7267426).</t>
+          <t>LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5625,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Food Station Beni Khiar located at Rue de l'environnement 8060, Beni Khiar. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but there's no information on when it's closed. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, visit their website at https://www.google.com/maps/place/Food+Station+Beni+Khiar/data=!4m7!3m6!1s0x1302a2a761c9ea81:0xc2306996f4d7ee5b!8m2!3d36.4648573!4d10.7848384!16s%2Fg%2F11gh04rrxs!19sChIJgerJYaeiAhMRW-7X9JZpMMI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 829 112.</t>
+          <t>Food Station Beni Khiar is a restaurant located at Beni Khiar, Tunisia. It's a popular place to go for a meal, offering a variety of dishes to choose from. The restaurant is open from 10:00 AM to 12:00 AM, and is closed on Fridays. It has a rating of 4.0 out of 5 on Google, with over 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -5754,11 +5728,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you happen to be in beni khiar and looking for a highly-rated restaurant, check out mT`m lsh`b Bk. 
-With 4.8 stars out of 5, this top-rated restaurant is located at FQ9J+PHC mT`m lsh`b Bk. 
-It is the perfect choice for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-It is open during these hours: 06:00-13:00, but closed on unspecified days. 
-To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, call them at 53 133 305.</t>
+          <t>**mT`m lsh`b Bk** is a restaurant located in Beni Khiar, Tunisia. It is rated 4.8 out of 5 stars on Google and has a featured image of the restaurant's entrance. The restaurant is open from 6:00 AM to 1:00 PM and is closed on Fridays. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at FQ9J+PHC mT`m lsh`b Bk, Beni Khiar, Tunisia. The coordinates are 36.4724714, 10.7885366.</t>
         </is>
       </c>
     </row>
@@ -5853,9 +5823,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great fast food spot, check out Fast Food Haythem located at Fast Food Haythem, 20-26, shr` lHbyb bwrqyb@, Beni Khiar. 
-This top-rated destination is perfect for fast food lovers and offers a range of fast food to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.</t>
         </is>
       </c>
     </row>
@@ -5962,9 +5930,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out The Wave cafe-Resto located at beach, Beni khiar, Benikhiar 8060. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:30. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100094180868711%26mibextid%3DLQQJ4d or call them at 92 721 295.</t>
+          <t>The Wave cafe-Resto is a 4.3-rated restaurant located in beni khiar. It offers a wide range of food and drinks, and is open from 8:00am to 10:30pm every day of the week. The restaurant is located at (36.5502451, 10.7267426).</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6025,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out CAPPELLO beni khiar located at FQ7H+68V CAPPELLO beni khiar, Rue Fadhel Ben Achour, Beni Khiar. This top-rated destination is perfect for Pizzeria lovers and has a rating of 5.0. For more details, visit their website at https://www.google.com/maps/place/CAPPELLO+beni+khiar/data=!4m7!3m6!1s0x1302990040dd0fc5:0x460909332633aefc!8m2!3d36.4631066!4d10.7782584!16s%2Fg%2F11vjtbq543!19sChIJxQ_dQACZAhMR_K4zJjMJCUY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.</t>
         </is>
       </c>
     </row>
@@ -6158,9 +6124,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Fastfood Beni Beni located at 165-153 shr` lHbyb bwrqyb@. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 0.494142, 29.4700961. For more details, visit their website at https://www.google.com/maps/place/Fastfood+B%C3%A9ni+B%C3%A9ni/data=!4m7!3m6!1s0x1302a3dbc2d8436f:0x117648aa878434af!8m2!3d36.4656583!4d10.7768372!16s%2Fg%2F11j4vhnlm_!19sChIJb0PYwtujAhMRrzSEh6pIdhE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6211,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something fun, check out fatayer hamed ounaissa. It's a top-rated destination with a rating of 5.0, perfect for nan lovers. They offer a range of categories to choose from. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Fatayer Hamed Ounaissa is a highly-rated eatery located in Beni Khiar, Tunisia. Its exact location is 36.4724714 latitude and 10.7885366 longitude. This small restaurant has garnered 5 stars based on a single review.</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6306,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Restaurant, check out I,ROLL located at FQ6P+568 I,ROLL, Av. 14 Janvier 2011, Beni Khiar. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.458789637547, 10.78665418903. For more details, visit their website at https://www.google.com/maps/place/I,ROLL/data=!4m7!3m6!1s0x1302992d7f57feaf:0x2724a2185d1e3561!8m2!3d36.460749!4d10.785228!16s%2Fg%2F11vj6xh1h1!19sChIJr_5Xfy2ZAhMRYTUeXRiiJCc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>I,ROLL, located in Beni Khiar at coordinates 36.458789637547, 10.78665418903, is a highly rated restaurant (5.0 stars) with one review. Our information is limited as there is no available description, website, or contact details. However, based on the name "I,ROLL," one can speculate that it may specialize in rolled dishes such as sushi or wraps.</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6401,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out fahmi fast food located at fahmi fast food, 55 shr` lHbyb bwrqyb@, Beni Khiar 8060. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>Fahmi Fast Food is a restaurant located in Beni Khiar, Tunisia. It offers a variety of food options, and is highly rated by its customers. The restaurant is located at the coordinates (36.5502451, 10.7267426).</t>
         </is>
       </c>
     </row>
@@ -6544,7 +6508,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great place to eat, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This top-rated restaurant is perfect for seafood lovers and offers a range of dishes to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill Station, located in beni khiar (36.475302, 10.7851807), is a popular Restaurant with a 4.3 rating based on 29 reviews. It is known for its focus on fruits de mer, generous garnish, and competitive prices. Visit their website at https://www.facebook.com/Grill-station-1855632481210052/ for more information.</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6611,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Restaurant La casa doro located at FQGQ+48P Restaurant La casa doro, Route korba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on dimanche. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+casa+doro/data=!4m7!3m6!1s0x1302a2baac91648f:0x6e935ccfcbbd9878!8m2!3d36.4753281!4d10.7883138!16s%2Fg%2F11c30x754b!19sChIJj2SRrLqiAhMReJi9y89ck24?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 070 718.</t>
+          <t>Restaurant La casa doro is a popular restaurant located in beni khiar, Tunisia (coordinates 36.5502451, 10.7267426). The restaurant offers a delightful dining experience, earning a respectable rating of 4.1 out of 5 stars from previous patrons. It operates during the following hours: 10:00-21:30, and remains closed on sundays.</t>
         </is>
       </c>
     </row>
@@ -6754,9 +6718,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-01:00, but closed on . To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station, located in beni khiar is a restaurant rated 4.3 out of 5 stars with 29 reviews. It is a popular spot for seafood, and offers a variety of side dishes. The restaurant is open from 10:00 to 01:00, and is closed on . The phone number is 23 312 754.</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6813,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Port de Beni Khiar located at Port de Beni Khiar, Beni Khiar. This top-rated destination is perfect for Port maritime lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4542877, 10.7969189.</t>
+          <t>The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.</t>
         </is>
       </c>
     </row>
@@ -6946,7 +6908,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a reliable gas station, check out OLA located at FQGQ+3PH OLA. This top-rated destination is open 24/7 and offers a range of services to choose from. With a rating of 3.5, it's a must-visit spot for locals and travelers alike. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -7041,9 +7003,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a Station-service, check out OLA located at FQGQ+3PH OLA, Beni Khiar. 
-This top-rated destination is perfect for Station-service lovers and offers a range of categories to choose from. 
-With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at https://www.google.com/maps/place/OLA/data=!4m7!3m6!1s0x1302a2b002c0f90d:0xbeb241f6fe3bd717!8m2!3d36.4751811!4d10.7893521!16s%2Fg%2F11c51rjtt7!19sChIJDfnAArCiAhMRF9c7_vZBsr4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at their phone number.</t>
+          <t>OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).</t>
         </is>
       </c>
     </row>
